--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h1337\Google ドライブ\QB Group\QB Operations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anko1\Documents\web_django\mysite2\excel_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746BDF79-2EFE-4C17-8BA5-4DEF4200F0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6C99F6-DAC2-445A-BF23-AE47C9AD630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1716" yWindow="852" windowWidth="13764" windowHeight="11508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,16 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -31,28 +39,17 @@
     <author>N HIRO</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{C7DAAB46-BAEC-4A68-B7EF-C0A13E74F049}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Yu Gothic"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>N HIRO:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">N HIRO:
 回収の際はマイナスで記入
 例：-12000
 </t>
@@ -64,275 +61,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="35">
   <si>
     <t>QB 日報</t>
-    <rPh sb="3" eb="5">
-      <t>ニッポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付：</t>
   </si>
   <si>
     <t>売上</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>現金</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>カード</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>買い出し</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>領収書</t>
-    <rPh sb="0" eb="3">
-      <t>リョウシュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>体入・派遣</t>
-    <rPh sb="0" eb="2">
-      <t>タイニュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>送り</t>
-    <rPh sb="0" eb="1">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>余剰金・欠損金</t>
-    <rPh sb="0" eb="3">
-      <t>ヨジョウキン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ケッソンキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付：</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>お客様情報</t>
-    <rPh sb="1" eb="3">
-      <t>キャクサマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>指名</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>人数</t>
-    <rPh sb="0" eb="2">
-      <t>ニンズウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>会計金額</t>
-    <rPh sb="0" eb="2">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出退勤情報</t>
   </si>
   <si>
     <t>出勤</t>
-    <rPh sb="0" eb="2">
-      <t>シュッキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>退勤</t>
-    <rPh sb="0" eb="2">
-      <t>タイキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出退勤情報</t>
-    <rPh sb="0" eb="1">
-      <t>シュツ</t>
-    </rPh>
-    <rPh sb="1" eb="5">
-      <t>タイキンジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ドリンク数</t>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ボトル</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>備考（送り・前払）</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>マエバラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総売上</t>
   </si>
   <si>
     <t>封筒金</t>
-    <rPh sb="0" eb="3">
-      <t>フウトウキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>買出し</t>
-    <rPh sb="0" eb="2">
-      <t>カイダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>つけ・回収</t>
-    <rPh sb="3" eb="5">
-      <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体入</t>
   </si>
   <si>
     <t>交通費</t>
-    <rPh sb="0" eb="3">
-      <t>コウツウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体入</t>
-    <rPh sb="0" eb="2">
-      <t>タイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>余剰金</t>
-    <rPh sb="0" eb="3">
-      <t>ヨジョウキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お客様情報</t>
-    <rPh sb="1" eb="5">
-      <t>キャクサマジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤者情報</t>
+  </si>
+  <si>
+    <t>ドリンク</t>
+  </si>
+  <si>
+    <t>前借</t>
+  </si>
+  <si>
+    <t>バック</t>
   </si>
   <si>
     <t>決済金額</t>
-    <rPh sb="0" eb="2">
-      <t>ケッサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出勤者情報</t>
-    <rPh sb="0" eb="5">
-      <t>シュッキンシャジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドリンク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前借</t>
-    <rPh sb="0" eb="2">
-      <t>マエガリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バック</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カ</t>
   </si>
   <si>
     <t>現</t>
-  </si>
-  <si>
-    <t>総売上</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ウリアゲ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[h]:mm"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,21 +235,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -847,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -931,11 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -957,6 +780,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1243,52 +1079,53 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.8125" style="1"/>
+    <col min="2" max="2" width="8.296875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="25.9">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="25.95" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
       <c r="D1" s="39" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="4.8" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:9" ht="18" thickBot="1">
+    <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="B3" s="33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1"/>
-    <row r="5" spans="1:9" ht="20.350000000000001" customHeight="1" thickBot="1"/>
-    <row r="6" spans="1:9" ht="18" thickBot="1">
+    <row r="5" spans="1:9" ht="20.399999999999999" customHeight="1" thickBot="1"/>
+    <row r="6" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="1:9" ht="18" thickBot="1">
+    <row r="7" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="B7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
@@ -1297,22 +1134,22 @@
       <c r="H7" s="2"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="18" thickBot="1">
+    <row r="8" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="B8" s="34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="32"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="18" thickBot="1">
+    <row r="9" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="2"/>
@@ -1322,12 +1159,12 @@
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="18" thickBot="1">
+    <row r="11" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" thickBot="1">
+    <row r="12" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="B12" s="27" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1307,7 @@
       <c r="G26" s="24"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="2:9" ht="18" thickBot="1">
+    <row r="27" spans="2:9" ht="18" customHeight="1" thickBot="1">
       <c r="B27" s="15"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1479,21 +1316,21 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="29" spans="2:9" ht="18" thickBot="1">
+    <row r="29" spans="2:9" ht="18" customHeight="1" thickBot="1">
       <c r="B29" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="18" thickBot="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="18" customHeight="1" thickBot="1">
       <c r="B30" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F30" s="36" t="s">
         <v>18</v>
@@ -1596,7 +1433,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="26"/>
     </row>
-    <row r="40" spans="2:9" ht="18" thickBot="1">
+    <row r="40" spans="2:9" ht="18" customHeight="1" thickBot="1">
       <c r="B40" s="7"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
@@ -1614,24 +1451,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E31D40-B469-4B2C-B27C-A05885AEB751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.0625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="5.0625" customWidth="1"/>
-    <col min="5" max="5" width="4.875" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="4.5625" customWidth="1"/>
-    <col min="9" max="9" width="4.8125" customWidth="1"/>
-    <col min="11" max="11" width="4.6875" customWidth="1"/>
-    <col min="12" max="12" width="2.6875" customWidth="1"/>
-    <col min="13" max="19" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="5.09765625" customWidth="1"/>
+    <col min="5" max="5" width="4.8984375" customWidth="1"/>
+    <col min="6" max="6" width="16.8984375" customWidth="1"/>
+    <col min="7" max="7" width="4.59765625" customWidth="1"/>
+    <col min="9" max="9" width="4.796875" customWidth="1"/>
+    <col min="11" max="11" width="4.69921875" customWidth="1"/>
+    <col min="12" max="12" width="2.69921875" customWidth="1"/>
+    <col min="13" max="19" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1639,81 +1476,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" thickBot="1"/>
-    <row r="3" spans="1:19" s="41" customFormat="1" ht="18" thickBot="1">
+    <row r="2" spans="1:19" ht="18" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:19" s="41" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="53"/>
       <c r="B3" s="45" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="18" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="B4" s="44">
         <f>B15+D15+F15+H15+J15+B25+D25+F25+H25+J25+B35+D35+F35+H35+J35+B45+D45+F45+H45+J45</f>
         <v>20000</v>
       </c>
       <c r="D4" s="48"/>
       <c r="J4" s="52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="9.85" customHeight="1" thickBot="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="9.9" customHeight="1" thickBot="1">
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:19" s="41" customFormat="1" ht="18" thickBot="1">
+    <row r="6" spans="1:19" s="41" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="53"/>
       <c r="B6" s="49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="51"/>
     </row>
-    <row r="7" spans="1:19" ht="18" thickBot="1">
+    <row r="7" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="B7" s="47"/>
       <c r="D7" s="47"/>
       <c r="F7" s="47"/>
       <c r="H7" s="47"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="1:19" s="41" customFormat="1" ht="18" thickBot="1">
+    <row r="8" spans="1:19" s="41" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="53"/>
       <c r="B8" s="49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:19" ht="18" thickBot="1">
+    <row r="9" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="B9" s="48"/>
       <c r="D9" s="48"/>
       <c r="F9" s="48"/>
       <c r="H9" s="48"/>
       <c r="J9" s="48"/>
     </row>
-    <row r="11" spans="1:19" ht="18" thickBot="1">
+    <row r="11" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M11" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
@@ -1722,60 +1559,60 @@
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
     </row>
-    <row r="12" spans="1:19" ht="18" thickBot="1">
-      <c r="B12" s="63" t="s">
+    <row r="12" spans="1:19" ht="18" customHeight="1" thickBot="1">
+      <c r="B12" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="58" t="s">
+      <c r="N12" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="58" t="s">
+      <c r="O12" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="58" t="s">
+      <c r="S12" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="S12" s="60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="18" thickBot="1">
+    </row>
+    <row r="13" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="B13" s="48"/>
       <c r="C13" s="43"/>
       <c r="D13" s="48"/>
@@ -1787,70 +1624,70 @@
       <c r="J13" s="48"/>
       <c r="K13" s="43"/>
       <c r="M13" s="50"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="50"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
       <c r="P13" s="50"/>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
       <c r="S13" s="42"/>
     </row>
-    <row r="14" spans="1:19" ht="18" thickBot="1">
-      <c r="B14" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="64"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="47"/>
+    <row r="14" spans="1:19" ht="18" customHeight="1" thickBot="1">
+      <c r="B14" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="H14" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="61"/>
+      <c r="J14" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="61"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="66"/>
       <c r="P14" s="47"/>
       <c r="Q14" s="47"/>
       <c r="R14" s="47"/>
       <c r="S14" s="46"/>
     </row>
-    <row r="15" spans="1:19" ht="18" thickBot="1">
-      <c r="B15" s="61">
+    <row r="15" spans="1:19" ht="18" customHeight="1" thickBot="1">
+      <c r="B15" s="58">
         <v>12000</v>
       </c>
-      <c r="C15" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="61">
+      <c r="C15" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="58">
         <v>8000</v>
       </c>
-      <c r="E15" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62" t="s">
+      <c r="E15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="47"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="51"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="66"/>
       <c r="P15" s="47"/>
       <c r="Q15" s="47"/>
       <c r="R15" s="47"/>
@@ -1872,9 +1709,9 @@
       <c r="J16" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="47"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="47"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="66"/>
       <c r="P16" s="47"/>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
@@ -1886,9 +1723,9 @@
       <c r="G17" s="53"/>
       <c r="I17" s="53"/>
       <c r="K17" s="53"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="47"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="66"/>
       <c r="P17" s="47"/>
       <c r="Q17" s="47"/>
       <c r="R17" s="47"/>
@@ -1900,9 +1737,9 @@
       <c r="G18" s="53"/>
       <c r="I18" s="53"/>
       <c r="K18" s="53"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="47"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="66"/>
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
       <c r="R18" s="47"/>
@@ -1914,9 +1751,9 @@
       <c r="G19" s="53"/>
       <c r="I19" s="53"/>
       <c r="K19" s="53"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="47"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="47"/>
       <c r="Q19" s="47"/>
       <c r="R19" s="47"/>
@@ -1928,68 +1765,68 @@
       <c r="G20" s="53"/>
       <c r="I20" s="53"/>
       <c r="K20" s="53"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="47"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
       <c r="P20" s="47"/>
       <c r="Q20" s="47"/>
       <c r="R20" s="47"/>
       <c r="S20" s="46"/>
     </row>
-    <row r="21" spans="2:19" ht="18" thickBot="1">
+    <row r="21" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="C21" s="53"/>
       <c r="E21" s="53"/>
       <c r="G21" s="53"/>
       <c r="I21" s="53"/>
       <c r="K21" s="53"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="47"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
       <c r="P21" s="47"/>
       <c r="Q21" s="47"/>
       <c r="R21" s="47"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="2:19" ht="18" thickBot="1">
-      <c r="B22" s="63" t="s">
+    <row r="22" spans="2:19" ht="18" customHeight="1" thickBot="1">
+      <c r="B22" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="63" t="s">
+      <c r="H22" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="64" t="s">
+      <c r="K22" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="47"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="47"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="66"/>
       <c r="P22" s="47"/>
       <c r="Q22" s="47"/>
       <c r="R22" s="47"/>
       <c r="S22" s="46"/>
     </row>
-    <row r="23" spans="2:19" ht="18" thickBot="1">
+    <row r="23" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="B23" s="48"/>
       <c r="C23" s="43"/>
       <c r="D23" s="48"/>
@@ -2000,67 +1837,67 @@
       <c r="I23" s="43"/>
       <c r="J23" s="48"/>
       <c r="K23" s="43"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="47"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
       <c r="P23" s="47"/>
       <c r="Q23" s="47"/>
       <c r="R23" s="47"/>
       <c r="S23" s="46"/>
     </row>
-    <row r="24" spans="2:19" ht="18" thickBot="1">
-      <c r="B24" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="64"/>
-      <c r="J24" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="64"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="47"/>
+    <row r="24" spans="2:19" ht="18" customHeight="1" thickBot="1">
+      <c r="B24" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="61"/>
+      <c r="F24" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="61"/>
+      <c r="H24" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="61"/>
+      <c r="J24" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="61"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="66"/>
       <c r="P24" s="47"/>
       <c r="Q24" s="47"/>
       <c r="R24" s="47"/>
       <c r="S24" s="46"/>
     </row>
-    <row r="25" spans="2:19" ht="18" thickBot="1">
+    <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="B25" s="48"/>
-      <c r="C25" s="62" t="s">
-        <v>33</v>
+      <c r="C25" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="D25" s="48"/>
-      <c r="E25" s="62" t="s">
-        <v>33</v>
+      <c r="E25" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="F25" s="48"/>
-      <c r="G25" s="62" t="s">
-        <v>33</v>
+      <c r="G25" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="H25" s="48"/>
-      <c r="I25" s="62" t="s">
-        <v>33</v>
+      <c r="I25" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="J25" s="48"/>
-      <c r="K25" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="47"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="47"/>
+      <c r="K25" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="51"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="66"/>
       <c r="P25" s="47"/>
       <c r="Q25" s="47"/>
       <c r="R25" s="47"/>
@@ -2082,9 +1919,9 @@
       <c r="J26" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="47"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="66"/>
       <c r="P26" s="47"/>
       <c r="Q26" s="47"/>
       <c r="R26" s="47"/>
@@ -2096,9 +1933,9 @@
       <c r="G27" s="53"/>
       <c r="I27" s="53"/>
       <c r="K27" s="53"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="47"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="66"/>
       <c r="P27" s="47"/>
       <c r="Q27" s="47"/>
       <c r="R27" s="47"/>
@@ -2110,9 +1947,9 @@
       <c r="G28" s="53"/>
       <c r="I28" s="53"/>
       <c r="K28" s="53"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="47"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="66"/>
       <c r="P28" s="47"/>
       <c r="Q28" s="47"/>
       <c r="R28" s="47"/>
@@ -2124,68 +1961,68 @@
       <c r="G29" s="53"/>
       <c r="I29" s="53"/>
       <c r="K29" s="53"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="47"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="66"/>
       <c r="P29" s="47"/>
       <c r="Q29" s="47"/>
       <c r="R29" s="47"/>
       <c r="S29" s="46"/>
     </row>
-    <row r="30" spans="2:19" ht="18" thickBot="1">
+    <row r="30" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="C30" s="53"/>
       <c r="E30" s="53"/>
       <c r="G30" s="53"/>
       <c r="I30" s="53"/>
       <c r="K30" s="53"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="48"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="68"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
       <c r="R30" s="48"/>
       <c r="S30" s="43"/>
     </row>
-    <row r="31" spans="2:19" ht="18" thickBot="1">
+    <row r="31" spans="2:19" ht="18" customHeight="1" thickBot="1">
       <c r="C31" s="53"/>
       <c r="E31" s="53"/>
       <c r="G31" s="53"/>
       <c r="I31" s="53"/>
       <c r="K31" s="53"/>
     </row>
-    <row r="32" spans="2:19" ht="18" thickBot="1">
-      <c r="B32" s="63" t="s">
+    <row r="32" spans="2:19" ht="18" customHeight="1" thickBot="1">
+      <c r="B32" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="63" t="s">
+      <c r="F32" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="64" t="s">
+      <c r="G32" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="64" t="s">
+      <c r="I32" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="63" t="s">
+      <c r="J32" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="64" t="s">
+      <c r="K32" s="61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="18" thickBot="1">
+    <row r="33" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="B33" s="48"/>
       <c r="C33" s="43"/>
       <c r="D33" s="48"/>
@@ -2197,48 +2034,48 @@
       <c r="J33" s="48"/>
       <c r="K33" s="43"/>
     </row>
-    <row r="34" spans="2:11" ht="18" thickBot="1">
-      <c r="B34" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="64"/>
-      <c r="H34" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="64"/>
-      <c r="J34" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="64"/>
-    </row>
-    <row r="35" spans="2:11" ht="18" thickBot="1">
+    <row r="34" spans="2:11" ht="18" customHeight="1" thickBot="1">
+      <c r="B34" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="61"/>
+      <c r="F34" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="61"/>
+      <c r="H34" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="61"/>
+      <c r="J34" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="61"/>
+    </row>
+    <row r="35" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="B35" s="48"/>
-      <c r="C35" s="62" t="s">
-        <v>33</v>
+      <c r="C35" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="D35" s="48"/>
-      <c r="E35" s="62" t="s">
-        <v>33</v>
+      <c r="E35" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="F35" s="48"/>
-      <c r="G35" s="62" t="s">
-        <v>33</v>
+      <c r="G35" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="H35" s="48"/>
-      <c r="I35" s="62" t="s">
-        <v>33</v>
+      <c r="I35" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="J35" s="48"/>
-      <c r="K35" s="62" t="s">
-        <v>33</v>
+      <c r="K35" s="59" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -2286,46 +2123,46 @@
       <c r="I40" s="53"/>
       <c r="K40" s="53"/>
     </row>
-    <row r="41" spans="2:11" ht="18" thickBot="1">
+    <row r="41" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="C41" s="53"/>
       <c r="E41" s="53"/>
       <c r="G41" s="53"/>
       <c r="I41" s="53"/>
       <c r="K41" s="53"/>
     </row>
-    <row r="42" spans="2:11" ht="18" thickBot="1">
-      <c r="B42" s="63" t="s">
+    <row r="42" spans="2:11" ht="18" customHeight="1" thickBot="1">
+      <c r="B42" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="63" t="s">
+      <c r="F42" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="63" t="s">
+      <c r="H42" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="64" t="s">
+      <c r="I42" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="63" t="s">
+      <c r="J42" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="K42" s="64" t="s">
+      <c r="K42" s="61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="18" thickBot="1">
+    <row r="43" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="B43" s="48"/>
       <c r="C43" s="43"/>
       <c r="D43" s="48"/>
@@ -2337,48 +2174,48 @@
       <c r="J43" s="48"/>
       <c r="K43" s="43"/>
     </row>
-    <row r="44" spans="2:11" ht="18" thickBot="1">
-      <c r="B44" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="64"/>
-      <c r="H44" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="64"/>
-      <c r="J44" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="64"/>
-    </row>
-    <row r="45" spans="2:11" ht="18" thickBot="1">
+    <row r="44" spans="2:11" ht="18" customHeight="1" thickBot="1">
+      <c r="B44" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="61"/>
+      <c r="D44" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="61"/>
+      <c r="F44" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="61"/>
+      <c r="H44" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="61"/>
+      <c r="J44" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="61"/>
+    </row>
+    <row r="45" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="B45" s="48"/>
-      <c r="C45" s="62" t="s">
-        <v>33</v>
+      <c r="C45" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="D45" s="48"/>
-      <c r="E45" s="62" t="s">
-        <v>33</v>
+      <c r="E45" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="F45" s="48"/>
-      <c r="G45" s="62" t="s">
-        <v>33</v>
+      <c r="G45" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="H45" s="48"/>
-      <c r="I45" s="62" t="s">
-        <v>33</v>
+      <c r="I45" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="J45" s="48"/>
-      <c r="K45" s="62" t="s">
-        <v>33</v>
+      <c r="K45" s="59" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -2442,15 +2279,15 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:A20 C17:C21 E17:E21 G17:G21 I17:I21 K17:K21 C27:C31 E27:E31 G27:G31 I27:I31 K27:K31 C37:C41 E37:E41 G37:G41 I37:I41 K37:K41 C47:C51 E47:E52 G47:G52 I47:I52 K47:K52" xr:uid="{EDA00911-BCCF-4799-B2DD-4C377FE92E7C}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A13:A20 C17:C21 C27:C31 C37:C41 C47:C51 E17:E21 E27:E31 E37:E41 E47:E52 G17:G21 G27:G31 G37:G41 G47:G52 I17:I21 I27:I31 I37:I41 I47:I52 K17:K21 K27:K31 K37:K41 K47:K52" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"B,J,D,F,H,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 E15 G15 I15 K15 K25 I25 G25 E25 C25 C35 E35 G35 I35 K35 K45 I45 G45 E45 C45" xr:uid="{B1E64C9C-AAC9-42C7-8460-486208054699}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C15 C25 C35 C45 E15 E25 E35 E45 G15 G25 G35 G45 I15 I25 I35 I45 K15 K25 K35 K45" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"現,カ"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -1674,12 +1674,12 @@
       </c>
       <c r="N13" s="69" t="inlineStr">
         <is>
-          <t>24:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="O13" s="70" t="inlineStr">
         <is>
-          <t>24:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="P13" s="50" t="n"/>

--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1716" yWindow="852" windowWidth="13764" windowHeight="11508" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Original" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Revised" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revised" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1429,7 +1429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="O13" s="70" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>25:00</t>
         </is>
       </c>
       <c r="P13" s="50" t="n"/>
@@ -2523,6 +2523,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1716" yWindow="852" windowWidth="13764" windowHeight="11508" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original" sheetId="1" state="visible" r:id="rId1"/>
@@ -627,22 +627,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1011,15 +1003,15 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="18"/>
   <cols>
     <col width="2" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.296875" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.796875" customWidth="1" style="1" min="3" max="5"/>
-    <col width="8.796875" customWidth="1" style="1" min="6" max="16384"/>
+    <col width="8.796875" customWidth="1" style="1" min="3" max="6"/>
+    <col width="8.796875" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customFormat="1" customHeight="1" s="11">
@@ -1436,8 +1428,8 @@
   </sheetPr>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="17.19921875" defaultRowHeight="18"/>
@@ -1679,7 +1671,7 @@
       </c>
       <c r="O13" s="70" t="inlineStr">
         <is>
-          <t>25:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="P13" s="50" t="n"/>
@@ -1718,9 +1710,21 @@
         </is>
       </c>
       <c r="K14" s="61" t="n"/>
-      <c r="M14" s="51" t="n"/>
-      <c r="N14" s="71" t="n"/>
-      <c r="O14" s="72" t="n"/>
+      <c r="M14" s="51" t="inlineStr">
+        <is>
+          <t>のあ</t>
+        </is>
+      </c>
+      <c r="N14" s="71" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="O14" s="72" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
       <c r="P14" s="47" t="n"/>
       <c r="Q14" s="47" t="n"/>
       <c r="R14" s="47" t="n"/>

--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -1765,7 +1765,11 @@
           <t>現</t>
         </is>
       </c>
-      <c r="M15" s="51" t="n"/>
+      <c r="M15" s="51" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="N15" s="71" t="n"/>
       <c r="O15" s="72" t="n"/>
       <c r="P15" s="47" t="n"/>

--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -1661,17 +1661,17 @@
       <c r="K13" s="43" t="n"/>
       <c r="M13" s="50" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="N13" s="69" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="O13" s="70" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="P13" s="50" t="n"/>

--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M12" s="55" t="inlineStr">
         <is>
-          <t>名前</t>
+          <t>test</t>
         </is>
       </c>
       <c r="N12" s="56" t="inlineStr">
@@ -1661,7 +1661,7 @@
       <c r="K13" s="43" t="n"/>
       <c r="M13" s="50" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="N13" s="69" t="inlineStr">
@@ -1712,7 +1712,7 @@
       <c r="K14" s="61" t="n"/>
       <c r="M14" s="51" t="inlineStr">
         <is>
-          <t>のあ</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="N14" s="71" t="inlineStr">

--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="36" yWindow="0" windowWidth="13632" windowHeight="11508" tabRatio="600" firstSheet="1" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revised" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OriginRevised" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revised" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -519,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -633,6 +634,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -716,6 +718,24 @@
 </file>
 
 <file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>N HIRO</author>
+  </authors>
+  <commentList>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">N HIRO:
+回収の際はマイナスで記入
+例：-12000
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>N HIRO</author>
@@ -1010,8 +1030,8 @@
   <cols>
     <col width="2" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.296875" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.796875" customWidth="1" style="1" min="3" max="6"/>
-    <col width="8.796875" customWidth="1" style="1" min="7" max="16384"/>
+    <col width="8.796875" customWidth="1" style="1" min="3" max="17"/>
+    <col width="8.796875" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customFormat="1" customHeight="1" s="11">
@@ -1428,8 +1448,8 @@
   </sheetPr>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="17.19921875" defaultRowHeight="18"/>
@@ -1446,11 +1466,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="54" t="inlineStr">
-        <is>
-          <t>QB 日報</t>
-        </is>
-      </c>
+      <c r="A1" s="54" t="n"/>
+      <c r="B1" s="69" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1" thickBot="1"/>
     <row r="3" ht="18" customFormat="1" customHeight="1" s="41" thickBot="1">
@@ -1614,7 +1631,1091 @@
       </c>
       <c r="M12" s="55" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="N12" s="56" t="inlineStr">
+        <is>
+          <t>出勤</t>
+        </is>
+      </c>
+      <c r="O12" s="55" t="inlineStr">
+        <is>
+          <t>退勤</t>
+        </is>
+      </c>
+      <c r="P12" s="55" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="Q12" s="55" t="inlineStr">
+        <is>
+          <t>ボトル</t>
+        </is>
+      </c>
+      <c r="R12" s="55" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="S12" s="57" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" thickBot="1">
+      <c r="B13" s="48" t="n"/>
+      <c r="C13" s="43" t="n"/>
+      <c r="D13" s="48" t="n"/>
+      <c r="E13" s="43" t="n"/>
+      <c r="F13" s="48" t="n"/>
+      <c r="G13" s="43" t="n"/>
+      <c r="H13" s="48" t="n"/>
+      <c r="I13" s="43" t="n"/>
+      <c r="J13" s="48" t="n"/>
+      <c r="K13" s="43" t="n"/>
+      <c r="M13" s="50" t="n"/>
+      <c r="N13" s="70" t="n"/>
+      <c r="O13" s="71" t="n"/>
+      <c r="P13" s="50" t="n"/>
+      <c r="Q13" s="50" t="n"/>
+      <c r="R13" s="50" t="n"/>
+      <c r="S13" s="42" t="n"/>
+    </row>
+    <row r="14" ht="18" customHeight="1" thickBot="1">
+      <c r="B14" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="K14" s="61" t="n"/>
+      <c r="M14" s="51" t="n"/>
+      <c r="N14" s="72" t="n"/>
+      <c r="O14" s="73" t="n"/>
+      <c r="P14" s="47" t="n"/>
+      <c r="Q14" s="47" t="n"/>
+      <c r="R14" s="47" t="n"/>
+      <c r="S14" s="46" t="n"/>
+    </row>
+    <row r="15" ht="18" customHeight="1" thickBot="1">
+      <c r="B15" s="58" t="n"/>
+      <c r="C15" s="59" t="inlineStr">
+        <is>
+          <t>カ</t>
+        </is>
+      </c>
+      <c r="D15" s="58" t="n"/>
+      <c r="E15" s="59" t="inlineStr">
+        <is>
+          <t>カ</t>
+        </is>
+      </c>
+      <c r="F15" s="58" t="n"/>
+      <c r="G15" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="H15" s="58" t="n"/>
+      <c r="I15" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="J15" s="58" t="n"/>
+      <c r="K15" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="M15" s="51" t="n"/>
+      <c r="N15" s="72" t="n"/>
+      <c r="O15" s="73" t="n"/>
+      <c r="P15" s="47" t="n"/>
+      <c r="Q15" s="47" t="n"/>
+      <c r="R15" s="47" t="n"/>
+      <c r="S15" s="46" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="M16" s="51" t="n"/>
+      <c r="N16" s="72" t="n"/>
+      <c r="O16" s="73" t="n"/>
+      <c r="P16" s="47" t="n"/>
+      <c r="Q16" s="47" t="n"/>
+      <c r="R16" s="47" t="n"/>
+      <c r="S16" s="46" t="n"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="53" t="n"/>
+      <c r="E17" s="53" t="n"/>
+      <c r="G17" s="53" t="n"/>
+      <c r="I17" s="53" t="n"/>
+      <c r="K17" s="53" t="n"/>
+      <c r="M17" s="51" t="n"/>
+      <c r="N17" s="72" t="n"/>
+      <c r="O17" s="73" t="n"/>
+      <c r="P17" s="47" t="n"/>
+      <c r="Q17" s="47" t="n"/>
+      <c r="R17" s="47" t="n"/>
+      <c r="S17" s="46" t="n"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="53" t="n"/>
+      <c r="E18" s="53" t="n"/>
+      <c r="G18" s="53" t="n"/>
+      <c r="I18" s="53" t="n"/>
+      <c r="K18" s="53" t="n"/>
+      <c r="M18" s="51" t="n"/>
+      <c r="N18" s="72" t="n"/>
+      <c r="O18" s="73" t="n"/>
+      <c r="P18" s="47" t="n"/>
+      <c r="Q18" s="47" t="n"/>
+      <c r="R18" s="47" t="n"/>
+      <c r="S18" s="46" t="n"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="53" t="n"/>
+      <c r="E19" s="53" t="n"/>
+      <c r="G19" s="53" t="n"/>
+      <c r="I19" s="53" t="n"/>
+      <c r="K19" s="53" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="72" t="n"/>
+      <c r="O19" s="73" t="n"/>
+      <c r="P19" s="47" t="n"/>
+      <c r="Q19" s="47" t="n"/>
+      <c r="R19" s="47" t="n"/>
+      <c r="S19" s="46" t="n"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="53" t="n"/>
+      <c r="E20" s="53" t="n"/>
+      <c r="G20" s="53" t="n"/>
+      <c r="I20" s="53" t="n"/>
+      <c r="K20" s="53" t="n"/>
+      <c r="M20" s="51" t="n"/>
+      <c r="N20" s="72" t="n"/>
+      <c r="O20" s="73" t="n"/>
+      <c r="P20" s="47" t="n"/>
+      <c r="Q20" s="47" t="n"/>
+      <c r="R20" s="47" t="n"/>
+      <c r="S20" s="46" t="n"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" thickBot="1">
+      <c r="C21" s="53" t="n"/>
+      <c r="E21" s="53" t="n"/>
+      <c r="G21" s="53" t="n"/>
+      <c r="I21" s="53" t="n"/>
+      <c r="K21" s="53" t="n"/>
+      <c r="M21" s="51" t="n"/>
+      <c r="N21" s="72" t="n"/>
+      <c r="O21" s="73" t="n"/>
+      <c r="P21" s="47" t="n"/>
+      <c r="Q21" s="47" t="n"/>
+      <c r="R21" s="47" t="n"/>
+      <c r="S21" s="46" t="n"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" thickBot="1">
+      <c r="B22" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="C22" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="D22" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="E22" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="F22" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="G22" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="H22" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="I22" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="J22" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="K22" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="M22" s="51" t="n"/>
+      <c r="N22" s="72" t="n"/>
+      <c r="O22" s="73" t="n"/>
+      <c r="P22" s="47" t="n"/>
+      <c r="Q22" s="47" t="n"/>
+      <c r="R22" s="47" t="n"/>
+      <c r="S22" s="46" t="n"/>
+    </row>
+    <row r="23" ht="18" customHeight="1" thickBot="1">
+      <c r="B23" s="48" t="n"/>
+      <c r="C23" s="43" t="n"/>
+      <c r="D23" s="48" t="n"/>
+      <c r="E23" s="43" t="n"/>
+      <c r="F23" s="48" t="n"/>
+      <c r="G23" s="43" t="n"/>
+      <c r="H23" s="48" t="n"/>
+      <c r="I23" s="43" t="n"/>
+      <c r="J23" s="48" t="n"/>
+      <c r="K23" s="43" t="n"/>
+      <c r="M23" s="51" t="n"/>
+      <c r="N23" s="72" t="n"/>
+      <c r="O23" s="73" t="n"/>
+      <c r="P23" s="47" t="n"/>
+      <c r="Q23" s="47" t="n"/>
+      <c r="R23" s="47" t="n"/>
+      <c r="S23" s="46" t="n"/>
+    </row>
+    <row r="24" ht="18" customHeight="1" thickBot="1">
+      <c r="B24" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="I24" s="61" t="n"/>
+      <c r="J24" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="K24" s="61" t="n"/>
+      <c r="M24" s="51" t="n"/>
+      <c r="N24" s="72" t="n"/>
+      <c r="O24" s="73" t="n"/>
+      <c r="P24" s="47" t="n"/>
+      <c r="Q24" s="47" t="n"/>
+      <c r="R24" s="47" t="n"/>
+      <c r="S24" s="46" t="n"/>
+    </row>
+    <row r="25" ht="18" customHeight="1" thickBot="1">
+      <c r="B25" s="48" t="n"/>
+      <c r="C25" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="D25" s="48" t="n"/>
+      <c r="E25" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="F25" s="48" t="n"/>
+      <c r="G25" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="H25" s="48" t="n"/>
+      <c r="I25" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="J25" s="48" t="n"/>
+      <c r="K25" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="M25" s="51" t="n"/>
+      <c r="N25" s="72" t="n"/>
+      <c r="O25" s="73" t="n"/>
+      <c r="P25" s="47" t="n"/>
+      <c r="Q25" s="47" t="n"/>
+      <c r="R25" s="47" t="n"/>
+      <c r="S25" s="46" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="M26" s="51" t="n"/>
+      <c r="N26" s="72" t="n"/>
+      <c r="O26" s="73" t="n"/>
+      <c r="P26" s="47" t="n"/>
+      <c r="Q26" s="47" t="n"/>
+      <c r="R26" s="47" t="n"/>
+      <c r="S26" s="46" t="n"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="53" t="n"/>
+      <c r="E27" s="53" t="n"/>
+      <c r="G27" s="53" t="n"/>
+      <c r="I27" s="53" t="n"/>
+      <c r="K27" s="53" t="n"/>
+      <c r="M27" s="51" t="n"/>
+      <c r="N27" s="72" t="n"/>
+      <c r="O27" s="73" t="n"/>
+      <c r="P27" s="47" t="n"/>
+      <c r="Q27" s="47" t="n"/>
+      <c r="R27" s="47" t="n"/>
+      <c r="S27" s="46" t="n"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="53" t="n"/>
+      <c r="E28" s="53" t="n"/>
+      <c r="G28" s="53" t="n"/>
+      <c r="I28" s="53" t="n"/>
+      <c r="K28" s="53" t="n"/>
+      <c r="M28" s="51" t="n"/>
+      <c r="N28" s="72" t="n"/>
+      <c r="O28" s="73" t="n"/>
+      <c r="P28" s="47" t="n"/>
+      <c r="Q28" s="47" t="n"/>
+      <c r="R28" s="47" t="n"/>
+      <c r="S28" s="46" t="n"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="53" t="n"/>
+      <c r="E29" s="53" t="n"/>
+      <c r="G29" s="53" t="n"/>
+      <c r="I29" s="53" t="n"/>
+      <c r="K29" s="53" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="72" t="n"/>
+      <c r="O29" s="73" t="n"/>
+      <c r="P29" s="47" t="n"/>
+      <c r="Q29" s="47" t="n"/>
+      <c r="R29" s="47" t="n"/>
+      <c r="S29" s="46" t="n"/>
+    </row>
+    <row r="30" ht="18" customHeight="1" thickBot="1">
+      <c r="C30" s="53" t="n"/>
+      <c r="E30" s="53" t="n"/>
+      <c r="G30" s="53" t="n"/>
+      <c r="I30" s="53" t="n"/>
+      <c r="K30" s="53" t="n"/>
+      <c r="M30" s="62" t="n"/>
+      <c r="N30" s="74" t="n"/>
+      <c r="O30" s="75" t="n"/>
+      <c r="P30" s="48" t="n"/>
+      <c r="Q30" s="48" t="n"/>
+      <c r="R30" s="48" t="n"/>
+      <c r="S30" s="43" t="n"/>
+    </row>
+    <row r="31" ht="18" customHeight="1" thickBot="1">
+      <c r="C31" s="53" t="n"/>
+      <c r="E31" s="53" t="n"/>
+      <c r="G31" s="53" t="n"/>
+      <c r="I31" s="53" t="n"/>
+      <c r="K31" s="53" t="n"/>
+    </row>
+    <row r="32" ht="18" customHeight="1" thickBot="1">
+      <c r="B32" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="C32" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="D32" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="E32" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="F32" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="G32" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="H32" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="I32" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="J32" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="K32" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1" thickBot="1">
+      <c r="B33" s="48" t="n"/>
+      <c r="C33" s="43" t="n"/>
+      <c r="D33" s="48" t="n"/>
+      <c r="E33" s="43" t="n"/>
+      <c r="F33" s="48" t="n"/>
+      <c r="G33" s="43" t="n"/>
+      <c r="H33" s="48" t="n"/>
+      <c r="I33" s="43" t="n"/>
+      <c r="J33" s="48" t="n"/>
+      <c r="K33" s="43" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1" thickBot="1">
+      <c r="B34" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="C34" s="61" t="n"/>
+      <c r="D34" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="E34" s="61" t="n"/>
+      <c r="F34" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="G34" s="61" t="n"/>
+      <c r="H34" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="I34" s="61" t="n"/>
+      <c r="J34" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="K34" s="61" t="n"/>
+    </row>
+    <row r="35" ht="18" customHeight="1" thickBot="1">
+      <c r="B35" s="48" t="n"/>
+      <c r="C35" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="D35" s="48" t="n"/>
+      <c r="E35" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="F35" s="48" t="n"/>
+      <c r="G35" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="H35" s="48" t="n"/>
+      <c r="I35" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="J35" s="48" t="n"/>
+      <c r="K35" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="53" t="n"/>
+      <c r="E37" s="53" t="n"/>
+      <c r="G37" s="53" t="n"/>
+      <c r="I37" s="53" t="n"/>
+      <c r="K37" s="53" t="n"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="53" t="n"/>
+      <c r="E38" s="53" t="n"/>
+      <c r="G38" s="53" t="n"/>
+      <c r="I38" s="53" t="n"/>
+      <c r="K38" s="53" t="n"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="53" t="n"/>
+      <c r="E39" s="53" t="n"/>
+      <c r="G39" s="53" t="n"/>
+      <c r="I39" s="53" t="n"/>
+      <c r="K39" s="53" t="n"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="53" t="n"/>
+      <c r="E40" s="53" t="n"/>
+      <c r="G40" s="53" t="n"/>
+      <c r="I40" s="53" t="n"/>
+      <c r="K40" s="53" t="n"/>
+    </row>
+    <row r="41" ht="18" customHeight="1" thickBot="1">
+      <c r="C41" s="53" t="n"/>
+      <c r="E41" s="53" t="n"/>
+      <c r="G41" s="53" t="n"/>
+      <c r="I41" s="53" t="n"/>
+      <c r="K41" s="53" t="n"/>
+    </row>
+    <row r="42" ht="18" customHeight="1" thickBot="1">
+      <c r="B42" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="C42" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="D42" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="E42" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="F42" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="G42" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="H42" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="I42" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="J42" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="K42" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="18" customHeight="1" thickBot="1">
+      <c r="B43" s="48" t="n"/>
+      <c r="C43" s="43" t="n"/>
+      <c r="D43" s="48" t="n"/>
+      <c r="E43" s="43" t="n"/>
+      <c r="F43" s="48" t="n"/>
+      <c r="G43" s="43" t="n"/>
+      <c r="H43" s="48" t="n"/>
+      <c r="I43" s="43" t="n"/>
+      <c r="J43" s="48" t="n"/>
+      <c r="K43" s="43" t="n"/>
+    </row>
+    <row r="44" ht="18" customHeight="1" thickBot="1">
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="C44" s="61" t="n"/>
+      <c r="D44" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="E44" s="61" t="n"/>
+      <c r="F44" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="G44" s="61" t="n"/>
+      <c r="H44" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="I44" s="61" t="n"/>
+      <c r="J44" s="60" t="inlineStr">
+        <is>
+          <t>決済金額</t>
+        </is>
+      </c>
+      <c r="K44" s="61" t="n"/>
+    </row>
+    <row r="45" ht="18" customHeight="1" thickBot="1">
+      <c r="B45" s="48" t="n"/>
+      <c r="C45" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="D45" s="48" t="n"/>
+      <c r="E45" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="F45" s="48" t="n"/>
+      <c r="G45" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="H45" s="48" t="n"/>
+      <c r="I45" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+      <c r="J45" s="48" t="n"/>
+      <c r="K45" s="59" t="inlineStr">
+        <is>
+          <t>現</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>指名</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" s="53" t="n"/>
+      <c r="E47" s="53" t="n"/>
+      <c r="G47" s="53" t="n"/>
+      <c r="I47" s="53" t="n"/>
+      <c r="K47" s="53" t="n"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="53" t="n"/>
+      <c r="E48" s="53" t="n"/>
+      <c r="G48" s="53" t="n"/>
+      <c r="I48" s="53" t="n"/>
+      <c r="K48" s="53" t="n"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="53" t="n"/>
+      <c r="E49" s="53" t="n"/>
+      <c r="G49" s="53" t="n"/>
+      <c r="I49" s="53" t="n"/>
+      <c r="K49" s="53" t="n"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="53" t="n"/>
+      <c r="E50" s="53" t="n"/>
+      <c r="G50" s="53" t="n"/>
+      <c r="I50" s="53" t="n"/>
+      <c r="K50" s="53" t="n"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="53" t="n"/>
+      <c r="E51" s="53" t="n"/>
+      <c r="G51" s="53" t="n"/>
+      <c r="I51" s="53" t="n"/>
+      <c r="K51" s="53" t="n"/>
+    </row>
+    <row r="52">
+      <c r="E52" s="53" t="n"/>
+      <c r="G52" s="53" t="n"/>
+      <c r="I52" s="53" t="n"/>
+      <c r="K52" s="53" t="n"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="C15 C25 C35 C45 E15 E25 E35 E45 G15 G25 G35 G45 I15 I25 I35 I45 K15 K25 K35 K45" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"現,カ"</formula1>
+    </dataValidation>
+    <dataValidation sqref="A13:A20 C17:C21 C27:C31 C37:C41 C47:C51 E17:E21 E27:E31 E37:E41 E47:E52 G17:G21 G27:G31 G37:G41 G47:G52 I17:I21 I27:I31 I37:I41 I47:I52 K17:K21 K27:K31 K37:K41 K47:K52" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"B,J,D,F,H,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="17.19921875" defaultRowHeight="18"/>
+  <cols>
+    <col width="4.09765625" customWidth="1" style="53" min="1" max="1"/>
+    <col width="5.09765625" customWidth="1" min="3" max="3"/>
+    <col width="4.8984375" customWidth="1" min="5" max="5"/>
+    <col width="16.8984375" customWidth="1" min="6" max="6"/>
+    <col width="4.59765625" customWidth="1" min="7" max="7"/>
+    <col width="4.796875" customWidth="1" min="9" max="9"/>
+    <col width="4.69921875" customWidth="1" min="11" max="11"/>
+    <col width="2.69921875" customWidth="1" min="12" max="12"/>
+    <col width="10.3984375" customWidth="1" min="13" max="19"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="54" t="n"/>
+      <c r="B1" s="69" t="inlineStr">
+        <is>
+          <t>2023/05/28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" thickBot="1"/>
+    <row r="3" ht="18" customFormat="1" customHeight="1" s="41" thickBot="1">
+      <c r="A3" s="53" t="n"/>
+      <c r="B3" s="45" t="inlineStr">
+        <is>
+          <t>総売上</t>
+        </is>
+      </c>
+      <c r="D3" s="49" t="inlineStr">
+        <is>
+          <t>封筒金</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" thickBot="1">
+      <c r="B4" s="44">
+        <f>B15+D15+F15+H15+J15+B25+D25+F25+H25+J25+B35+D35+F35+H35+J35+B45+D45+F45+H45+J45</f>
+        <v/>
+      </c>
+      <c r="D4" s="48" t="n"/>
+      <c r="J4" s="52" t="inlineStr">
+        <is>
+          <t>送り</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="9.9" customHeight="1" thickBot="1">
+      <c r="J5" s="47" t="n"/>
+    </row>
+    <row r="6" ht="18" customFormat="1" customHeight="1" s="41" thickBot="1">
+      <c r="A6" s="53" t="n"/>
+      <c r="B6" s="49" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="D6" s="49" t="inlineStr">
+        <is>
+          <t>カード</t>
+        </is>
+      </c>
+      <c r="F6" s="49" t="inlineStr">
+        <is>
+          <t>買出し</t>
+        </is>
+      </c>
+      <c r="H6" s="49" t="inlineStr">
+        <is>
+          <t>領収書</t>
+        </is>
+      </c>
+      <c r="J6" s="51" t="n"/>
+    </row>
+    <row r="7" ht="18" customHeight="1" thickBot="1">
+      <c r="B7" s="47" t="n"/>
+      <c r="D7" s="47" t="n"/>
+      <c r="F7" s="47" t="n"/>
+      <c r="H7" s="47" t="n"/>
+      <c r="J7" s="47" t="n"/>
+    </row>
+    <row r="8" ht="18" customFormat="1" customHeight="1" s="41" thickBot="1">
+      <c r="A8" s="53" t="n"/>
+      <c r="B8" s="49" t="inlineStr">
+        <is>
+          <t>つけ・回収</t>
+        </is>
+      </c>
+      <c r="D8" s="49" t="inlineStr">
+        <is>
+          <t>体入</t>
+        </is>
+      </c>
+      <c r="F8" s="49" t="inlineStr">
+        <is>
+          <t>交通費</t>
+        </is>
+      </c>
+      <c r="H8" s="49" t="inlineStr">
+        <is>
+          <t>余剰金</t>
+        </is>
+      </c>
+      <c r="J8" s="47" t="n"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" thickBot="1">
+      <c r="B9" s="48" t="n"/>
+      <c r="D9" s="48" t="n"/>
+      <c r="F9" s="48" t="n"/>
+      <c r="H9" s="48" t="n"/>
+      <c r="J9" s="48" t="n"/>
+    </row>
+    <row r="11" ht="18" customHeight="1" thickBot="1">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>お客様情報</t>
+        </is>
+      </c>
+      <c r="M11" s="41" t="inlineStr">
+        <is>
+          <t>出勤者情報</t>
+        </is>
+      </c>
+      <c r="N11" s="41" t="n"/>
+      <c r="O11" s="41" t="n"/>
+      <c r="P11" s="41" t="n"/>
+      <c r="Q11" s="41" t="n"/>
+      <c r="R11" s="41" t="n"/>
+      <c r="S11" s="41" t="n"/>
+    </row>
+    <row r="12" ht="18" customHeight="1" thickBot="1">
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="C12" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="D12" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="E12" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="F12" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="G12" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="H12" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="J12" s="60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="K12" s="61" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="M12" s="55" t="inlineStr">
+        <is>
+          <t>名前</t>
         </is>
       </c>
       <c r="N12" s="56" t="inlineStr">
@@ -1661,21 +2762,25 @@
       <c r="K13" s="43" t="n"/>
       <c r="M13" s="50" t="inlineStr">
         <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="N13" s="69" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="O13" s="70" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="P13" s="50" t="n"/>
-      <c r="Q13" s="50" t="n"/>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="N13" s="70" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="O13" s="73" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="P13" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="50" t="n">
+        <v>0</v>
+      </c>
       <c r="R13" s="50" t="n"/>
       <c r="S13" s="42" t="n"/>
     </row>
@@ -1712,36 +2817,27 @@
       <c r="K14" s="61" t="n"/>
       <c r="M14" s="51" t="inlineStr">
         <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="N14" s="71" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="O14" s="72" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="P14" s="47" t="n"/>
-      <c r="Q14" s="47" t="n"/>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="N14" s="72" t="n"/>
+      <c r="P14" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="R14" s="47" t="n"/>
       <c r="S14" s="46" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1" thickBot="1">
-      <c r="B15" s="58" t="n">
-        <v>12000</v>
-      </c>
+      <c r="B15" s="58" t="n"/>
       <c r="C15" s="59" t="inlineStr">
         <is>
           <t>カ</t>
         </is>
       </c>
-      <c r="D15" s="58" t="n">
-        <v>8000</v>
-      </c>
+      <c r="D15" s="58" t="n"/>
       <c r="E15" s="59" t="inlineStr">
         <is>
           <t>カ</t>
@@ -1765,13 +2861,9 @@
           <t>現</t>
         </is>
       </c>
-      <c r="M15" s="51" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="N15" s="71" t="n"/>
-      <c r="O15" s="72" t="n"/>
+      <c r="M15" s="51" t="n"/>
+      <c r="N15" s="72" t="n"/>
+      <c r="O15" s="73" t="n"/>
       <c r="P15" s="47" t="n"/>
       <c r="Q15" s="47" t="n"/>
       <c r="R15" s="47" t="n"/>
@@ -1804,8 +2896,8 @@
         </is>
       </c>
       <c r="M16" s="51" t="n"/>
-      <c r="N16" s="71" t="n"/>
-      <c r="O16" s="72" t="n"/>
+      <c r="N16" s="72" t="n"/>
+      <c r="O16" s="73" t="n"/>
       <c r="P16" s="47" t="n"/>
       <c r="Q16" s="47" t="n"/>
       <c r="R16" s="47" t="n"/>
@@ -1818,8 +2910,8 @@
       <c r="I17" s="53" t="n"/>
       <c r="K17" s="53" t="n"/>
       <c r="M17" s="51" t="n"/>
-      <c r="N17" s="71" t="n"/>
-      <c r="O17" s="72" t="n"/>
+      <c r="N17" s="72" t="n"/>
+      <c r="O17" s="73" t="n"/>
       <c r="P17" s="47" t="n"/>
       <c r="Q17" s="47" t="n"/>
       <c r="R17" s="47" t="n"/>
@@ -1832,8 +2924,8 @@
       <c r="I18" s="53" t="n"/>
       <c r="K18" s="53" t="n"/>
       <c r="M18" s="51" t="n"/>
-      <c r="N18" s="71" t="n"/>
-      <c r="O18" s="72" t="n"/>
+      <c r="N18" s="72" t="n"/>
+      <c r="O18" s="73" t="n"/>
       <c r="P18" s="47" t="n"/>
       <c r="Q18" s="47" t="n"/>
       <c r="R18" s="47" t="n"/>
@@ -1846,8 +2938,8 @@
       <c r="I19" s="53" t="n"/>
       <c r="K19" s="53" t="n"/>
       <c r="M19" s="51" t="n"/>
-      <c r="N19" s="71" t="n"/>
-      <c r="O19" s="72" t="n"/>
+      <c r="N19" s="72" t="n"/>
+      <c r="O19" s="73" t="n"/>
       <c r="P19" s="47" t="n"/>
       <c r="Q19" s="47" t="n"/>
       <c r="R19" s="47" t="n"/>
@@ -1860,8 +2952,8 @@
       <c r="I20" s="53" t="n"/>
       <c r="K20" s="53" t="n"/>
       <c r="M20" s="51" t="n"/>
-      <c r="N20" s="71" t="n"/>
-      <c r="O20" s="72" t="n"/>
+      <c r="N20" s="72" t="n"/>
+      <c r="O20" s="73" t="n"/>
       <c r="P20" s="47" t="n"/>
       <c r="Q20" s="47" t="n"/>
       <c r="R20" s="47" t="n"/>
@@ -1874,8 +2966,8 @@
       <c r="I21" s="53" t="n"/>
       <c r="K21" s="53" t="n"/>
       <c r="M21" s="51" t="n"/>
-      <c r="N21" s="71" t="n"/>
-      <c r="O21" s="72" t="n"/>
+      <c r="N21" s="72" t="n"/>
+      <c r="O21" s="73" t="n"/>
       <c r="P21" s="47" t="n"/>
       <c r="Q21" s="47" t="n"/>
       <c r="R21" s="47" t="n"/>
@@ -1933,8 +3025,8 @@
         </is>
       </c>
       <c r="M22" s="51" t="n"/>
-      <c r="N22" s="71" t="n"/>
-      <c r="O22" s="72" t="n"/>
+      <c r="N22" s="72" t="n"/>
+      <c r="O22" s="73" t="n"/>
       <c r="P22" s="47" t="n"/>
       <c r="Q22" s="47" t="n"/>
       <c r="R22" s="47" t="n"/>
@@ -1952,8 +3044,8 @@
       <c r="J23" s="48" t="n"/>
       <c r="K23" s="43" t="n"/>
       <c r="M23" s="51" t="n"/>
-      <c r="N23" s="71" t="n"/>
-      <c r="O23" s="72" t="n"/>
+      <c r="N23" s="72" t="n"/>
+      <c r="O23" s="73" t="n"/>
       <c r="P23" s="47" t="n"/>
       <c r="Q23" s="47" t="n"/>
       <c r="R23" s="47" t="n"/>
@@ -1991,8 +3083,8 @@
       </c>
       <c r="K24" s="61" t="n"/>
       <c r="M24" s="51" t="n"/>
-      <c r="N24" s="71" t="n"/>
-      <c r="O24" s="72" t="n"/>
+      <c r="N24" s="72" t="n"/>
+      <c r="O24" s="73" t="n"/>
       <c r="P24" s="47" t="n"/>
       <c r="Q24" s="47" t="n"/>
       <c r="R24" s="47" t="n"/>
@@ -2030,8 +3122,8 @@
         </is>
       </c>
       <c r="M25" s="51" t="n"/>
-      <c r="N25" s="71" t="n"/>
-      <c r="O25" s="72" t="n"/>
+      <c r="N25" s="72" t="n"/>
+      <c r="O25" s="73" t="n"/>
       <c r="P25" s="47" t="n"/>
       <c r="Q25" s="47" t="n"/>
       <c r="R25" s="47" t="n"/>
@@ -2064,8 +3156,8 @@
         </is>
       </c>
       <c r="M26" s="51" t="n"/>
-      <c r="N26" s="71" t="n"/>
-      <c r="O26" s="72" t="n"/>
+      <c r="N26" s="72" t="n"/>
+      <c r="O26" s="73" t="n"/>
       <c r="P26" s="47" t="n"/>
       <c r="Q26" s="47" t="n"/>
       <c r="R26" s="47" t="n"/>
@@ -2078,8 +3170,8 @@
       <c r="I27" s="53" t="n"/>
       <c r="K27" s="53" t="n"/>
       <c r="M27" s="51" t="n"/>
-      <c r="N27" s="71" t="n"/>
-      <c r="O27" s="72" t="n"/>
+      <c r="N27" s="72" t="n"/>
+      <c r="O27" s="73" t="n"/>
       <c r="P27" s="47" t="n"/>
       <c r="Q27" s="47" t="n"/>
       <c r="R27" s="47" t="n"/>
@@ -2092,8 +3184,8 @@
       <c r="I28" s="53" t="n"/>
       <c r="K28" s="53" t="n"/>
       <c r="M28" s="51" t="n"/>
-      <c r="N28" s="71" t="n"/>
-      <c r="O28" s="72" t="n"/>
+      <c r="N28" s="72" t="n"/>
+      <c r="O28" s="73" t="n"/>
       <c r="P28" s="47" t="n"/>
       <c r="Q28" s="47" t="n"/>
       <c r="R28" s="47" t="n"/>
@@ -2106,8 +3198,8 @@
       <c r="I29" s="53" t="n"/>
       <c r="K29" s="53" t="n"/>
       <c r="M29" s="51" t="n"/>
-      <c r="N29" s="71" t="n"/>
-      <c r="O29" s="72" t="n"/>
+      <c r="N29" s="72" t="n"/>
+      <c r="O29" s="73" t="n"/>
       <c r="P29" s="47" t="n"/>
       <c r="Q29" s="47" t="n"/>
       <c r="R29" s="47" t="n"/>
@@ -2120,8 +3212,8 @@
       <c r="I30" s="53" t="n"/>
       <c r="K30" s="53" t="n"/>
       <c r="M30" s="62" t="n"/>
-      <c r="N30" s="73" t="n"/>
-      <c r="O30" s="74" t="n"/>
+      <c r="N30" s="74" t="n"/>
+      <c r="O30" s="75" t="n"/>
       <c r="P30" s="48" t="n"/>
       <c r="Q30" s="48" t="n"/>
       <c r="R30" s="48" t="n"/>
@@ -2521,14 +3613,6 @@
       <c r="K52" s="53" t="n"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="A13:A20 C17:C21 C27:C31 C37:C41 C47:C51 E17:E21 E27:E31 E37:E41 E47:E52 G17:G21 G27:G31 G37:G41 G47:G52 I17:I21 I27:I31 I37:I41 I47:I52 K17:K21 K27:K31 K37:K41 K47:K52" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"B,J,D,F,H,"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C15 C25 C35 C45 E15 E25 E35 E45 G15 G25 G35 G45 I15 I25 I35 I45 K15 K25 K35 K45" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"現,カ"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>

--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -1745,8 +1745,8 @@
   </sheetPr>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="17.19921875" defaultRowHeight="18" outlineLevelCol="0"/>
@@ -1766,7 +1766,7 @@
       <c r="A1" s="14" t="n"/>
       <c r="B1" s="29" t="inlineStr">
         <is>
-          <t>2023/06/07</t>
+          <t>2023/06/08</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8" t="n">
         <v>0</v>
@@ -1987,22 +1987,10 @@
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" thickBot="1">
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>asds</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>rvf</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="B13" s="8" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="8" t="n"/>
+      <c r="E13" s="3" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="3" t="n"/>
       <c r="H13" s="8" t="n"/>
@@ -2011,30 +1999,30 @@
       <c r="K13" s="3" t="n"/>
       <c r="M13" s="10" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>s</t>
         </is>
       </c>
       <c r="N13" s="30" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="O13" s="31" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="P13" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" thickBot="1">
@@ -2077,17 +2065,13 @@
       <c r="S14" s="6" t="n"/>
     </row>
     <row r="15" ht="18" customHeight="1" thickBot="1">
-      <c r="B15" s="18" t="n">
-        <v>3960</v>
-      </c>
+      <c r="B15" s="18" t="n"/>
       <c r="C15" s="19" t="inlineStr">
         <is>
           <t>現</t>
         </is>
       </c>
-      <c r="D15" s="18" t="n">
-        <v>7920</v>
-      </c>
+      <c r="D15" s="18" t="n"/>
       <c r="E15" s="19" t="inlineStr">
         <is>
           <t>現</t>
@@ -2154,26 +2138,8 @@
       <c r="S16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C17" s="13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="E17" s="13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
       <c r="G17" s="13" t="n"/>
       <c r="K17" s="13" t="n"/>
       <c r="M17" s="11" t="n"/>

--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -1771,8 +1771,8 @@
   </sheetPr>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="17.19921875" defaultRowHeight="18" outlineLevelCol="0"/>
@@ -1792,7 +1792,7 @@
       <c r="A1" s="13" t="n"/>
       <c r="B1" s="22" t="inlineStr">
         <is>
-          <t>2023/06/12</t>
+          <t>2023/06/14</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,11 @@
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" thickBot="1">
-      <c r="B13" s="7" t="inlineStr"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>rvf</t>
+        </is>
+      </c>
       <c r="C13" s="3" t="n">
         <v>1</v>
       </c>
@@ -2032,21 +2036,25 @@
       </c>
       <c r="N13" s="30" t="inlineStr">
         <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="O13" s="31" t="n"/>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="O13" s="31" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
       <c r="P13" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="9" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="R13" s="9" t="n">
         <v>0</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>4400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" thickBot="1">
@@ -2087,26 +2095,30 @@
       </c>
       <c r="N14" s="32" t="inlineStr">
         <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="O14" s="33" t="n"/>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="O14" s="33" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
       <c r="P14" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="10" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="R14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="27" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" thickBot="1">
       <c r="B15" s="17" t="n">
-        <v>3960</v>
+        <v>134640</v>
       </c>
       <c r="C15" s="18" t="inlineStr">
         <is>
@@ -2182,12 +2194,12 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>そのだ</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
         <is>
-          <t>DM</t>
+          <t>BJ</t>
         </is>
       </c>
       <c r="E17" s="12" t="n"/>

--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -1792,7 +1792,7 @@
       <c r="A1" s="13" t="n"/>
       <c r="B1" s="22" t="inlineStr">
         <is>
-          <t>2023/06/14</t>
+          <t>2023/06/29</t>
         </is>
       </c>
     </row>
@@ -2013,14 +2013,8 @@
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" thickBot="1">
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>rvf</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="3" t="n"/>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="3" t="n"/>
       <c r="F13" s="7" t="n"/>
@@ -2036,12 +2030,12 @@
       </c>
       <c r="N13" s="30" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="O13" s="31" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="P13" s="9" t="n">
@@ -2095,31 +2089,25 @@
       </c>
       <c r="N14" s="32" t="inlineStr">
         <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="O14" s="33" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="O14" s="33" t="n"/>
       <c r="P14" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="10" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="R14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="27" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" thickBot="1">
-      <c r="B15" s="17" t="n">
-        <v>134640</v>
-      </c>
+      <c r="B15" s="17" t="n"/>
       <c r="C15" s="18" t="inlineStr">
         <is>
           <t>現</t>
@@ -2149,13 +2137,25 @@
           <t>現</t>
         </is>
       </c>
-      <c r="M15" s="10" t="n"/>
+      <c r="M15" s="10" t="inlineStr">
+        <is>
+          <t>めい</t>
+        </is>
+      </c>
       <c r="N15" s="32" t="n"/>
       <c r="O15" s="33" t="n"/>
-      <c r="P15" s="10" t="n"/>
-      <c r="Q15" s="10" t="n"/>
-      <c r="R15" s="10" t="n"/>
-      <c r="S15" s="27" t="n"/>
+      <c r="P15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
@@ -2183,35 +2183,50 @@
           <t>指名</t>
         </is>
       </c>
-      <c r="M16" s="10" t="n"/>
+      <c r="M16" s="10" t="inlineStr">
+        <is>
+          <t>あかり</t>
+        </is>
+      </c>
       <c r="N16" s="32" t="n"/>
       <c r="O16" s="33" t="n"/>
-      <c r="P16" s="10" t="n"/>
-      <c r="Q16" s="10" t="n"/>
-      <c r="R16" s="10" t="n"/>
-      <c r="S16" s="27" t="n"/>
+      <c r="P16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>そのだ</t>
-        </is>
-      </c>
-      <c r="C17" s="12" t="inlineStr">
-        <is>
-          <t>BJ</t>
-        </is>
-      </c>
+      <c r="C17" s="12" t="n"/>
       <c r="E17" s="12" t="n"/>
       <c r="G17" s="12" t="n"/>
       <c r="K17" s="12" t="n"/>
-      <c r="M17" s="10" t="n"/>
+      <c r="M17" s="10" t="inlineStr">
+        <is>
+          <t>ひとみ</t>
+        </is>
+      </c>
       <c r="N17" s="32" t="n"/>
       <c r="O17" s="33" t="n"/>
-      <c r="P17" s="10" t="n"/>
-      <c r="Q17" s="10" t="n"/>
-      <c r="R17" s="10" t="n"/>
-      <c r="S17" s="27" t="n"/>
+      <c r="P17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="C18" s="12" t="n"/>
@@ -2219,13 +2234,25 @@
       <c r="G18" s="12" t="n"/>
       <c r="I18" s="12" t="n"/>
       <c r="K18" s="12" t="n"/>
-      <c r="M18" s="10" t="n"/>
+      <c r="M18" s="10" t="inlineStr">
+        <is>
+          <t>みりあ</t>
+        </is>
+      </c>
       <c r="N18" s="32" t="n"/>
       <c r="O18" s="33" t="n"/>
-      <c r="P18" s="10" t="n"/>
-      <c r="Q18" s="10" t="n"/>
-      <c r="R18" s="10" t="n"/>
-      <c r="S18" s="27" t="n"/>
+      <c r="P18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" s="12" t="n"/>
@@ -2233,13 +2260,25 @@
       <c r="G19" s="12" t="n"/>
       <c r="I19" s="12" t="n"/>
       <c r="K19" s="12" t="n"/>
-      <c r="M19" s="10" t="n"/>
+      <c r="M19" s="10" t="inlineStr">
+        <is>
+          <t>こまち</t>
+        </is>
+      </c>
       <c r="N19" s="32" t="n"/>
       <c r="O19" s="33" t="n"/>
-      <c r="P19" s="10" t="n"/>
-      <c r="Q19" s="10" t="n"/>
-      <c r="R19" s="10" t="n"/>
-      <c r="S19" s="27" t="n"/>
+      <c r="P19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="C20" s="12" t="n"/>
@@ -2247,13 +2286,25 @@
       <c r="G20" s="12" t="n"/>
       <c r="I20" s="12" t="n"/>
       <c r="K20" s="12" t="n"/>
-      <c r="M20" s="10" t="n"/>
+      <c r="M20" s="10" t="inlineStr">
+        <is>
+          <t>ゆき</t>
+        </is>
+      </c>
       <c r="N20" s="32" t="n"/>
       <c r="O20" s="33" t="n"/>
-      <c r="P20" s="10" t="n"/>
-      <c r="Q20" s="10" t="n"/>
-      <c r="R20" s="10" t="n"/>
-      <c r="S20" s="27" t="n"/>
+      <c r="P20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" ht="18" customHeight="1" thickBot="1">
       <c r="C21" s="12" t="n"/>

--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -674,7 +674,7 @@
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="17.19921875" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="17.19921875" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="4.09765625" customWidth="1" style="12" min="1" max="1"/>
     <col width="5.09765625" customWidth="1" min="3" max="3"/>
@@ -1775,7 +1775,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="17.19921875" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="17.19921875" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="4.09765625" customWidth="1" style="12" min="1" max="1"/>
     <col width="5.09765625" customWidth="1" min="3" max="3"/>
@@ -1792,7 +1792,7 @@
       <c r="A1" s="13" t="n"/>
       <c r="B1" s="22" t="inlineStr">
         <is>
-          <t>2023/06/30</t>
+          <t>2023/08/28</t>
         </is>
       </c>
     </row>
@@ -2015,40 +2015,20 @@
     <row r="13" ht="18" customHeight="1" thickBot="1">
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>ｖ</t>
+          <t>eghrt</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>vx</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="inlineStr">
-        <is>
-          <t>ｄｖ</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7" t="inlineStr"/>
-      <c r="K13" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="3" t="n"/>
       <c r="M13" s="9" t="inlineStr"/>
       <c r="N13" s="30" t="inlineStr"/>
       <c r="O13" s="31" t="inlineStr"/>
@@ -2105,33 +2085,25 @@
           <t>現</t>
         </is>
       </c>
-      <c r="D15" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="D15" s="17" t="n"/>
       <c r="E15" s="18" t="inlineStr">
         <is>
           <t>現</t>
         </is>
       </c>
-      <c r="F15" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="17" t="n"/>
       <c r="G15" s="18" t="inlineStr">
         <is>
           <t>現</t>
         </is>
       </c>
-      <c r="H15" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="H15" s="17" t="n"/>
       <c r="I15" s="18" t="inlineStr">
         <is>
           <t>現</t>
         </is>
       </c>
-      <c r="J15" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" s="17" t="n"/>
       <c r="K15" s="18" t="inlineStr">
         <is>
           <t>現</t>
@@ -2190,46 +2162,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>めい</t>
-        </is>
-      </c>
-      <c r="E17" s="12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>めい</t>
-        </is>
-      </c>
-      <c r="G17" s="12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>めい</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>めい</t>
-        </is>
-      </c>
-      <c r="K17" s="12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="E17" s="12" t="n"/>
+      <c r="G17" s="12" t="n"/>
+      <c r="K17" s="12" t="n"/>
       <c r="M17" s="10" t="inlineStr"/>
       <c r="N17" s="32" t="inlineStr"/>
       <c r="O17" s="33" t="inlineStr"/>
@@ -2354,14 +2289,8 @@
       <c r="S22" s="27" t="inlineStr"/>
     </row>
     <row r="23" ht="18" customHeight="1" thickBot="1">
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>zxc</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="3" t="n"/>
       <c r="D23" s="7" t="n"/>
       <c r="E23" s="3" t="n"/>
       <c r="F23" s="7" t="n"/>
@@ -2418,9 +2347,7 @@
       <c r="S24" s="27" t="inlineStr"/>
     </row>
     <row r="25" ht="18" customHeight="1" thickBot="1">
-      <c r="B25" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B25" s="7" t="n"/>
       <c r="C25" s="18" t="inlineStr">
         <is>
           <t>現</t>
@@ -2493,16 +2420,7 @@
       <c r="S26" s="27" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>めい</t>
-        </is>
-      </c>
-      <c r="C27" s="12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C27" s="12" t="n"/>
       <c r="E27" s="12" t="n"/>
       <c r="G27" s="12" t="n"/>
       <c r="I27" s="12" t="n"/>
@@ -2563,6 +2481,13 @@
       <c r="G31" s="12" t="n"/>
       <c r="I31" s="12" t="n"/>
       <c r="K31" s="12" t="n"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32" ht="18" customHeight="1" thickBot="1">
       <c r="B32" s="19" t="inlineStr">
@@ -2615,6 +2540,13 @@
           <t>人数</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33" ht="18" customHeight="1" thickBot="1">
       <c r="B33" s="7" t="n"/>

--- a/excel_sheets/QB Daily Report.xlsx
+++ b/excel_sheets/QB Daily Report.xlsx
@@ -2015,27 +2015,51 @@
     <row r="13" ht="18" customHeight="1" thickBot="1">
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>eghrt</t>
+          <t>ｓｃｓ</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="7" t="n"/>
-      <c r="K13" s="3" t="n"/>
-      <c r="M13" s="9" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t>ｖｆ</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9" t="inlineStr">
+        <is>
+          <t>めい</t>
+        </is>
+      </c>
       <c r="N13" s="30" t="inlineStr"/>
       <c r="O13" s="31" t="inlineStr"/>
-      <c r="P13" s="9" t="inlineStr"/>
-      <c r="Q13" s="9" t="inlineStr"/>
-      <c r="R13" s="9" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr"/>
+      <c r="P13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="18" customHeight="1" thickBot="1">
       <c r="B14" s="19" t="inlineStr">
@@ -2068,13 +2092,25 @@
         </is>
       </c>
       <c r="K14" s="20" t="n"/>
-      <c r="M14" s="10" t="inlineStr"/>
+      <c r="M14" s="10" t="inlineStr">
+        <is>
+          <t>あかり</t>
+        </is>
+      </c>
       <c r="N14" s="32" t="inlineStr"/>
       <c r="O14" s="33" t="inlineStr"/>
-      <c r="P14" s="10" t="inlineStr"/>
-      <c r="Q14" s="10" t="inlineStr"/>
-      <c r="R14" s="10" t="inlineStr"/>
-      <c r="S14" s="27" t="inlineStr"/>
+      <c r="P14" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="R14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="18" customHeight="1" thickBot="1">
       <c r="B15" s="17" t="n">
@@ -2085,37 +2121,57 @@
           <t>現</t>
         </is>
       </c>
-      <c r="D15" s="17" t="n"/>
+      <c r="D15" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" s="18" t="inlineStr">
         <is>
           <t>現</t>
         </is>
       </c>
-      <c r="F15" s="17" t="n"/>
+      <c r="F15" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="G15" s="18" t="inlineStr">
         <is>
           <t>現</t>
         </is>
       </c>
-      <c r="H15" s="17" t="n"/>
+      <c r="H15" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I15" s="18" t="inlineStr">
         <is>
           <t>現</t>
         </is>
       </c>
-      <c r="J15" s="17" t="n"/>
+      <c r="J15" s="17" t="n">
+        <v>14520</v>
+      </c>
       <c r="K15" s="18" t="inlineStr">
         <is>
           <t>現</t>
         </is>
       </c>
-      <c r="M15" s="10" t="inlineStr"/>
+      <c r="M15" s="10" t="inlineStr">
+        <is>
+          <t>ひとみ</t>
+        </is>
+      </c>
       <c r="N15" s="32" t="inlineStr"/>
       <c r="O15" s="33" t="inlineStr"/>
-      <c r="P15" s="10" t="inlineStr"/>
-      <c r="Q15" s="10" t="inlineStr"/>
-      <c r="R15" s="10" t="inlineStr"/>
-      <c r="S15" s="27" t="inlineStr"/>
+      <c r="P15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
@@ -2143,13 +2199,25 @@
           <t>指名</t>
         </is>
       </c>
-      <c r="M16" s="10" t="inlineStr"/>
+      <c r="M16" s="10" t="inlineStr">
+        <is>
+          <t>みりあ</t>
+        </is>
+      </c>
       <c r="N16" s="32" t="inlineStr"/>
       <c r="O16" s="33" t="inlineStr"/>
-      <c r="P16" s="10" t="inlineStr"/>
-      <c r="Q16" s="10" t="inlineStr"/>
-      <c r="R16" s="10" t="inlineStr"/>
-      <c r="S16" s="27" t="inlineStr"/>
+      <c r="P16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
@@ -2162,30 +2230,100 @@
           <t>B</t>
         </is>
       </c>
-      <c r="E17" s="12" t="n"/>
-      <c r="G17" s="12" t="n"/>
-      <c r="K17" s="12" t="n"/>
-      <c r="M17" s="10" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>めい</t>
+        </is>
+      </c>
+      <c r="E17" s="12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>めい</t>
+        </is>
+      </c>
+      <c r="G17" s="12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>めい</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>めい</t>
+        </is>
+      </c>
+      <c r="K17" s="12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M17" s="10" t="inlineStr">
+        <is>
+          <t>こまち</t>
+        </is>
+      </c>
       <c r="N17" s="32" t="inlineStr"/>
       <c r="O17" s="33" t="inlineStr"/>
-      <c r="P17" s="10" t="inlineStr"/>
-      <c r="Q17" s="10" t="inlineStr"/>
-      <c r="R17" s="10" t="inlineStr"/>
-      <c r="S17" s="27" t="inlineStr"/>
+      <c r="P17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="C18" s="12" t="n"/>
       <c r="E18" s="12" t="n"/>
       <c r="G18" s="12" t="n"/>
       <c r="I18" s="12" t="n"/>
-      <c r="K18" s="12" t="n"/>
-      <c r="M18" s="10" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ひとみ</t>
+        </is>
+      </c>
+      <c r="K18" s="12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M18" s="10" t="inlineStr">
+        <is>
+          <t>ゆき</t>
+        </is>
+      </c>
       <c r="N18" s="32" t="inlineStr"/>
       <c r="O18" s="33" t="inlineStr"/>
-      <c r="P18" s="10" t="inlineStr"/>
-      <c r="Q18" s="10" t="inlineStr"/>
-      <c r="R18" s="10" t="inlineStr"/>
-      <c r="S18" s="27" t="inlineStr"/>
+      <c r="P18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="27" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" s="12" t="n"/>
@@ -2289,8 +2427,14 @@
       <c r="S22" s="27" t="inlineStr"/>
     </row>
     <row r="23" ht="18" customHeight="1" thickBot="1">
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="3" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>ｖｆｃｄ</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="D23" s="7" t="n"/>
       <c r="E23" s="3" t="n"/>
       <c r="F23" s="7" t="n"/>
@@ -2347,7 +2491,9 @@
       <c r="S24" s="27" t="inlineStr"/>
     </row>
     <row r="25" ht="18" customHeight="1" thickBot="1">
-      <c r="B25" s="7" t="n"/>
+      <c r="B25" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="C25" s="18" t="inlineStr">
         <is>
           <t>現</t>
@@ -2420,7 +2566,16 @@
       <c r="S26" s="27" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" s="12" t="n"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>めい</t>
+        </is>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E27" s="12" t="n"/>
       <c r="G27" s="12" t="n"/>
       <c r="I27" s="12" t="n"/>
